--- a/data/epicenters/signieq_table_for_validation.xlsx
+++ b/data/epicenters/signieq_table_for_validation.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="86">
   <si>
     <t>YEAR</t>
   </si>
@@ -702,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L414"/>
+  <dimension ref="A1:L413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300:XFD300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12083,37 +12083,37 @@
         <v>1994</v>
       </c>
       <c r="B300" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C300" s="1">
+        <v>26</v>
+      </c>
+      <c r="D300" s="1">
         <v>14</v>
       </c>
-      <c r="D300" s="1">
-        <v>19</v>
-      </c>
       <c r="E300" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F300" s="1">
-        <v>30.6</v>
+        <v>29.1</v>
       </c>
       <c r="G300" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H300" s="1">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J300" s="1">
-        <v>35.045999999999999</v>
+        <v>40.149000000000001</v>
       </c>
       <c r="K300" s="1">
-        <v>32.279000000000003</v>
+        <v>21.695</v>
       </c>
       <c r="L300" s="4">
-        <v>13939216.136301471</v>
+        <v>1445310428.879185</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -12124,72 +12124,72 @@
         <v>12</v>
       </c>
       <c r="C301" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D301" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E301" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F301" s="1">
-        <v>29.1</v>
+        <v>23</v>
       </c>
       <c r="G301" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H301" s="1">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="J301" s="1">
-        <v>40.149000000000001</v>
+        <v>52.628999999999998</v>
       </c>
       <c r="K301" s="1">
-        <v>21.695</v>
+        <v>142.827</v>
       </c>
       <c r="L301" s="4">
-        <v>1445310428.879185</v>
+        <v>963540285.91945648</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B302" s="1">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1">
+        <v>16</v>
+      </c>
+      <c r="D302" s="1">
+        <v>20</v>
+      </c>
+      <c r="E302" s="1">
+        <v>46</v>
+      </c>
+      <c r="F302" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="G302" s="1">
+        <v>22</v>
+      </c>
+      <c r="H302" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="I302" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C302" s="1">
-        <v>28</v>
-      </c>
-      <c r="D302" s="1">
-        <v>12</v>
-      </c>
-      <c r="E302" s="1">
-        <v>19</v>
-      </c>
-      <c r="F302" s="1">
-        <v>23</v>
-      </c>
-      <c r="G302" s="1">
-        <v>27</v>
-      </c>
-      <c r="H302" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="I302" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J302" s="1">
-        <v>52.628999999999998</v>
+        <v>38.401000000000003</v>
       </c>
       <c r="K302" s="1">
-        <v>142.827</v>
+        <v>22.283000000000001</v>
       </c>
       <c r="L302" s="4">
-        <v>963540285.91945648</v>
+        <v>1963208816.5303061</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -12197,37 +12197,37 @@
         <v>1995</v>
       </c>
       <c r="B303" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C303" s="1">
+        <v>8</v>
+      </c>
+      <c r="D303" s="1">
+        <v>18</v>
+      </c>
+      <c r="E303" s="1">
+        <v>40</v>
+      </c>
+      <c r="F303" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="G303" s="1">
+        <v>74</v>
+      </c>
+      <c r="H303" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="I303" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D303" s="1">
-        <v>20</v>
-      </c>
-      <c r="E303" s="1">
-        <v>46</v>
-      </c>
-      <c r="F303" s="1">
-        <v>52.1</v>
-      </c>
-      <c r="G303" s="1">
-        <v>22</v>
-      </c>
-      <c r="H303" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="I303" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J303" s="1">
-        <v>38.401000000000003</v>
+        <v>21.966000000000001</v>
       </c>
       <c r="K303" s="1">
-        <v>22.283000000000001</v>
+        <v>99.195999999999998</v>
       </c>
       <c r="L303" s="4">
-        <v>1963208816.5303061</v>
+        <v>107381573.1465819</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -12238,34 +12238,34 @@
         <v>2</v>
       </c>
       <c r="C304" s="1">
+        <v>23</v>
+      </c>
+      <c r="D304" s="1">
+        <v>21</v>
+      </c>
+      <c r="E304" s="1">
+        <v>3</v>
+      </c>
+      <c r="F304" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="G304" s="1">
+        <v>10</v>
+      </c>
+      <c r="H304" s="1">
         <v>8</v>
       </c>
-      <c r="D304" s="1">
-        <v>18</v>
-      </c>
-      <c r="E304" s="1">
-        <v>40</v>
-      </c>
-      <c r="F304" s="1">
-        <v>25.3</v>
-      </c>
-      <c r="G304" s="1">
-        <v>74</v>
-      </c>
-      <c r="H304" s="1">
-        <v>6.8</v>
-      </c>
       <c r="I304" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J304" s="1">
-        <v>21.966000000000001</v>
+        <v>-23.34</v>
       </c>
       <c r="K304" s="1">
-        <v>99.195999999999998</v>
+        <v>-70.293999999999997</v>
       </c>
       <c r="L304" s="4">
-        <v>107381573.1465819</v>
+        <v>4937767.6294550113</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -12273,37 +12273,37 @@
         <v>1995</v>
       </c>
       <c r="B305" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C305" s="1">
+        <v>13</v>
+      </c>
+      <c r="D305" s="1">
+        <v>8</v>
+      </c>
+      <c r="E305" s="1">
+        <v>47</v>
+      </c>
+      <c r="F305" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="G305" s="1">
+        <v>14</v>
+      </c>
+      <c r="H305" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="I305" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D305" s="1">
-        <v>21</v>
-      </c>
-      <c r="E305" s="1">
-        <v>3</v>
-      </c>
-      <c r="F305" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G305" s="1">
-        <v>10</v>
-      </c>
-      <c r="H305" s="1">
-        <v>8</v>
-      </c>
-      <c r="I305" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J305" s="1">
-        <v>-23.34</v>
+        <v>38.063000000000002</v>
       </c>
       <c r="K305" s="1">
-        <v>-70.293999999999997</v>
+        <v>30.134</v>
       </c>
       <c r="L305" s="4">
-        <v>4937767.6294550113</v>
+        <v>612164203.69990456</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -12314,34 +12314,34 @@
         <v>5</v>
       </c>
       <c r="C306" s="1">
+        <v>27</v>
+      </c>
+      <c r="D306" s="1">
         <v>13</v>
       </c>
-      <c r="D306" s="1">
-        <v>8</v>
-      </c>
       <c r="E306" s="1">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F306" s="1">
-        <v>12.7</v>
+        <v>52.6</v>
       </c>
       <c r="G306" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H306" s="1">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J306" s="1">
-        <v>38.063000000000002</v>
+        <v>26.003</v>
       </c>
       <c r="K306" s="1">
-        <v>30.134</v>
+        <v>102.227</v>
       </c>
       <c r="L306" s="4">
-        <v>612164203.69990456</v>
+        <v>237964705.0339765</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -12349,37 +12349,37 @@
         <v>1995</v>
       </c>
       <c r="B307" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C307" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D307" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E307" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F307" s="1">
-        <v>52.6</v>
+        <v>48.7</v>
       </c>
       <c r="G307" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H307" s="1">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J307" s="1">
-        <v>26.003</v>
+        <v>27.291</v>
       </c>
       <c r="K307" s="1">
-        <v>102.227</v>
+        <v>100.276</v>
       </c>
       <c r="L307" s="4">
-        <v>237964705.0339765</v>
+        <v>1505126759.3399014</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -12387,37 +12387,37 @@
         <v>1995</v>
       </c>
       <c r="B308" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C308" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D308" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E308" s="1">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F308" s="1">
-        <v>48.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="G308" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H308" s="1">
-        <v>6.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J308" s="1">
-        <v>27.291</v>
+        <v>-0.89100000000000001</v>
       </c>
       <c r="K308" s="1">
-        <v>100.276</v>
+        <v>136.952</v>
       </c>
       <c r="L308" s="4">
-        <v>1505126759.3399014</v>
+        <v>12493147.014283767</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -12428,34 +12428,34 @@
         <v>7</v>
       </c>
       <c r="C309" s="1">
+        <v>30</v>
+      </c>
+      <c r="D309" s="1">
+        <v>5</v>
+      </c>
+      <c r="E309" s="1">
         <v>11</v>
       </c>
-      <c r="D309" s="1">
-        <v>21</v>
-      </c>
-      <c r="E309" s="1">
+      <c r="F309" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="G309" s="1">
         <v>46</v>
       </c>
-      <c r="F309" s="1">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="G309" s="1">
-        <v>13</v>
-      </c>
       <c r="H309" s="1">
-        <v>8.1999999999999993</v>
+        <v>6.3</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J309" s="1">
-        <v>-0.89100000000000001</v>
+        <v>39.993000000000002</v>
       </c>
       <c r="K309" s="1">
-        <v>136.952</v>
+        <v>76.695999999999998</v>
       </c>
       <c r="L309" s="4">
-        <v>12493147.014283767</v>
+        <v>71389411.510192961</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -12463,37 +12463,37 @@
         <v>1995</v>
       </c>
       <c r="B310" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C310" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D310" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E310" s="1">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F310" s="1">
-        <v>23.6</v>
+        <v>16.2</v>
       </c>
       <c r="G310" s="1">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H310" s="1">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J310" s="1">
-        <v>39.993000000000002</v>
+        <v>-1.036</v>
       </c>
       <c r="K310" s="1">
-        <v>76.695999999999998</v>
+        <v>-78.736999999999995</v>
       </c>
       <c r="L310" s="4">
-        <v>71389411.510192961</v>
+        <v>20821911.690472946</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -12504,72 +12504,72 @@
         <v>10</v>
       </c>
       <c r="C311" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D311" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E311" s="1">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F311" s="1">
-        <v>16.2</v>
+        <v>50.8</v>
       </c>
       <c r="G311" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H311" s="1">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="J311" s="1">
-        <v>-1.036</v>
+        <v>37.661000000000001</v>
       </c>
       <c r="K311" s="1">
-        <v>-78.736999999999995</v>
+        <v>57.290999999999997</v>
       </c>
       <c r="L311" s="4">
-        <v>20821911.690472946</v>
+        <v>89236764.387741193</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B312" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C312" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D312" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E312" s="1">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F312" s="1">
-        <v>50.8</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G312" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H312" s="1">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="J312" s="1">
-        <v>37.661000000000001</v>
+        <v>11.112</v>
       </c>
       <c r="K312" s="1">
-        <v>57.290999999999997</v>
+        <v>-60.892000000000003</v>
       </c>
       <c r="L312" s="4">
-        <v>89236764.387741193</v>
+        <v>68791581.396965787</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -12580,34 +12580,34 @@
         <v>2</v>
       </c>
       <c r="C313" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D313" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E313" s="1">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F313" s="1">
-        <v>20.100000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="G313" s="1">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H313" s="1">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="J313" s="1">
-        <v>11.112</v>
+        <v>33.825000000000003</v>
       </c>
       <c r="K313" s="1">
-        <v>-60.892000000000003</v>
+        <v>59.808999999999997</v>
       </c>
       <c r="L313" s="4">
-        <v>68791581.396965787</v>
+        <v>275166325.58786315</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -12615,37 +12615,37 @@
         <v>1996</v>
       </c>
       <c r="B314" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C314" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D314" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E314" s="1">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F314" s="1">
-        <v>30.5</v>
+        <v>26</v>
       </c>
       <c r="G314" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H314" s="1">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="J314" s="1">
-        <v>33.825000000000003</v>
+        <v>23.082999999999998</v>
       </c>
       <c r="K314" s="1">
-        <v>59.808999999999997</v>
+        <v>80.040999999999997</v>
       </c>
       <c r="L314" s="4">
-        <v>275166325.58786315</v>
+        <v>393487845.59064424</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -12656,72 +12656,72 @@
         <v>3</v>
       </c>
       <c r="C315" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D315" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E315" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F315" s="1">
-        <v>26</v>
+        <v>49.8</v>
       </c>
       <c r="G315" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H315" s="1">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J315" s="1">
-        <v>23.082999999999998</v>
+        <v>10.598000000000001</v>
       </c>
       <c r="K315" s="1">
-        <v>80.040999999999997</v>
+        <v>-63.485999999999997</v>
       </c>
       <c r="L315" s="4">
-        <v>393487845.59064424</v>
+        <v>222884723.72616914</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B316" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D316" s="1">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E316" s="1">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F316" s="1">
-        <v>49.8</v>
+        <v>47.1</v>
       </c>
       <c r="G316" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H316" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J316" s="1">
-        <v>10.598000000000001</v>
+        <v>43.084000000000003</v>
       </c>
       <c r="K316" s="1">
-        <v>-63.485999999999997</v>
+        <v>12.811999999999999</v>
       </c>
       <c r="L316" s="4">
-        <v>222884723.72616914</v>
+        <v>11592120263.093351</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -12729,37 +12729,37 @@
         <v>1997</v>
       </c>
       <c r="B317" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C317" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D317" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E317" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F317" s="1">
-        <v>47.1</v>
+        <v>23.2</v>
       </c>
       <c r="G317" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H317" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J317" s="1">
-        <v>43.084000000000003</v>
+        <v>-3.7759999999999998</v>
       </c>
       <c r="K317" s="1">
-        <v>12.811999999999999</v>
+        <v>119.727</v>
       </c>
       <c r="L317" s="4">
-        <v>11592120263.093351</v>
+        <v>2818036.2636528295</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -12767,37 +12767,37 @@
         <v>1997</v>
       </c>
       <c r="B318" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C318" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D318" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E318" s="1">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F318" s="1">
-        <v>23.2</v>
+        <v>29.7</v>
       </c>
       <c r="G318" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H318" s="1">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J318" s="1">
-        <v>-3.7759999999999998</v>
+        <v>-30.933</v>
       </c>
       <c r="K318" s="1">
-        <v>119.727</v>
+        <v>-71.22</v>
       </c>
       <c r="L318" s="4">
-        <v>2818036.2636528295</v>
+        <v>122968855.14121437</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -12808,34 +12808,34 @@
         <v>5</v>
       </c>
       <c r="C319" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D319" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E319" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F319" s="1">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="G319" s="1">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="H319" s="1">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J319" s="1">
-        <v>-30.933</v>
+        <v>41.082999999999998</v>
       </c>
       <c r="K319" s="1">
-        <v>-71.22</v>
+        <v>114.5</v>
       </c>
       <c r="L319" s="4">
-        <v>122968855.14121437</v>
+        <v>731408502.975348</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -12843,37 +12843,37 @@
         <v>1997</v>
       </c>
       <c r="B320" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C320" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D320" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E320" s="1">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F320" s="1">
-        <v>28.7</v>
+        <v>13.1</v>
       </c>
       <c r="G320" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H320" s="1">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J320" s="1">
-        <v>41.082999999999998</v>
+        <v>37.106000000000002</v>
       </c>
       <c r="K320" s="1">
-        <v>114.5</v>
+        <v>70.11</v>
       </c>
       <c r="L320" s="4">
-        <v>731408502.975348</v>
+        <v>25618511.487752993</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -12881,37 +12881,37 @@
         <v>1997</v>
       </c>
       <c r="B321" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C321" s="1">
+        <v>26</v>
+      </c>
+      <c r="D321" s="1">
         <v>9</v>
       </c>
-      <c r="D321" s="1">
-        <v>19</v>
-      </c>
       <c r="E321" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F321" s="1">
-        <v>13.1</v>
+        <v>26.3</v>
       </c>
       <c r="G321" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H321" s="1">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="J321" s="1">
-        <v>37.106000000000002</v>
+        <v>36.878</v>
       </c>
       <c r="K321" s="1">
-        <v>70.11</v>
+        <v>35.307000000000002</v>
       </c>
       <c r="L321" s="4">
-        <v>25618511.487752993</v>
+        <v>1409018131.8264146</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -12922,34 +12922,34 @@
         <v>9</v>
       </c>
       <c r="C322" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D322" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E322" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F322" s="1">
-        <v>26.3</v>
+        <v>28.6</v>
       </c>
       <c r="G322" s="1">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H322" s="1">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J322" s="1">
-        <v>36.878</v>
+        <v>38.65</v>
       </c>
       <c r="K322" s="1">
-        <v>35.307000000000002</v>
+        <v>-28.626000000000001</v>
       </c>
       <c r="L322" s="4">
-        <v>1409018131.8264146</v>
+        <v>184453282.71182159</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -12957,75 +12957,75 @@
         <v>1997</v>
       </c>
       <c r="B323" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C323" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D323" s="1">
         <v>1</v>
       </c>
       <c r="E323" s="1">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F323" s="1">
-        <v>28.6</v>
+        <v>33.4</v>
       </c>
       <c r="G323" s="1">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="H323" s="1">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="J323" s="1">
-        <v>38.65</v>
+        <v>27.308</v>
       </c>
       <c r="K323" s="1">
-        <v>-28.626000000000001</v>
+        <v>101.029</v>
       </c>
       <c r="L323" s="4">
-        <v>184453282.71182159</v>
+        <v>179329580.41427094</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B324" s="1">
+        <v>1</v>
+      </c>
+      <c r="C324" s="1">
         <v>10</v>
       </c>
-      <c r="C324" s="1">
-        <v>15</v>
-      </c>
       <c r="D324" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E324" s="1">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F324" s="1">
-        <v>33.4</v>
+        <v>41.5</v>
       </c>
       <c r="G324" s="1">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H324" s="1">
-        <v>5.6</v>
+        <v>7.7</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J324" s="1">
-        <v>27.308</v>
+        <v>-2.0710000000000002</v>
       </c>
       <c r="K324" s="1">
-        <v>101.029</v>
+        <v>124.89100000000001</v>
       </c>
       <c r="L324" s="4">
-        <v>179329580.41427094</v>
+        <v>480487419.66513056</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -13033,37 +13033,37 @@
         <v>1998</v>
       </c>
       <c r="B325" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C325" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D325" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E325" s="1">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F325" s="1">
-        <v>41.5</v>
+        <v>28.9</v>
       </c>
       <c r="G325" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H325" s="1">
-        <v>7.7</v>
+        <v>4.5</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J325" s="1">
-        <v>-2.0710000000000002</v>
+        <v>26.373000000000001</v>
       </c>
       <c r="K325" s="1">
-        <v>124.89100000000001</v>
+        <v>104.021</v>
       </c>
       <c r="L325" s="4">
-        <v>480487419.66513056</v>
+        <v>54295078.422159761</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -13071,37 +13071,37 @@
         <v>1998</v>
       </c>
       <c r="B326" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C326" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D326" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E326" s="1">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F326" s="1">
-        <v>28.9</v>
+        <v>52</v>
       </c>
       <c r="G326" s="1">
         <v>33</v>
       </c>
       <c r="H326" s="1">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J326" s="1">
-        <v>26.373000000000001</v>
+        <v>4.4610000000000003</v>
       </c>
       <c r="K326" s="1">
-        <v>104.021</v>
+        <v>-75.724000000000004</v>
       </c>
       <c r="L326" s="4">
-        <v>54295078.422159761</v>
+        <v>4462204983.5687246</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -13109,37 +13109,37 @@
         <v>1998</v>
       </c>
       <c r="B327" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C327" s="1">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D327" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E327" s="1">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F327" s="1">
-        <v>52</v>
+        <v>7.3</v>
       </c>
       <c r="G327" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H327" s="1">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J327" s="1">
-        <v>4.4610000000000003</v>
+        <v>42.962000000000003</v>
       </c>
       <c r="K327" s="1">
-        <v>-75.724000000000004</v>
+        <v>46.954000000000001</v>
       </c>
       <c r="L327" s="4">
-        <v>4462204983.5687246</v>
+        <v>2162193.3884930876</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -13147,37 +13147,37 @@
         <v>1998</v>
       </c>
       <c r="B328" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C328" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D328" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E328" s="1">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F328" s="1">
-        <v>7.3</v>
+        <v>14.8</v>
       </c>
       <c r="G328" s="1">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H328" s="1">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J328" s="1">
-        <v>42.962000000000003</v>
+        <v>38.192999999999998</v>
       </c>
       <c r="K328" s="1">
-        <v>46.954000000000001</v>
+        <v>-1.5660000000000001</v>
       </c>
       <c r="L328" s="4">
-        <v>2162193.3884930876</v>
+        <v>105716842.07472202</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -13188,34 +13188,34 @@
         <v>11</v>
       </c>
       <c r="C329" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D329" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E329" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F329" s="1">
-        <v>14.8</v>
+        <v>31.9</v>
       </c>
       <c r="G329" s="1">
         <v>33</v>
       </c>
       <c r="H329" s="1">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J329" s="1">
-        <v>38.192999999999998</v>
+        <v>30.512</v>
       </c>
       <c r="K329" s="1">
-        <v>-1.5660000000000001</v>
+        <v>79.403000000000006</v>
       </c>
       <c r="L329" s="4">
-        <v>105716842.07472202</v>
+        <v>168170596.88279572</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -13223,75 +13223,75 @@
         <v>1998</v>
       </c>
       <c r="B330" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C330" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D330" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E330" s="1">
+        <v>37</v>
+      </c>
+      <c r="F330" s="1">
+        <v>56.1</v>
+      </c>
+      <c r="G330" s="1">
         <v>10</v>
       </c>
-      <c r="F330" s="1">
-        <v>31.9</v>
-      </c>
-      <c r="G330" s="1">
-        <v>33</v>
-      </c>
       <c r="H330" s="1">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="J330" s="1">
-        <v>30.512</v>
+        <v>40.802</v>
       </c>
       <c r="K330" s="1">
-        <v>79.403000000000006</v>
+        <v>47.448</v>
       </c>
       <c r="L330" s="4">
-        <v>168170596.88279572</v>
+        <v>12012185.491628265</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B331" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C331" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D331" s="1">
+        <v>18</v>
+      </c>
+      <c r="E331" s="1">
+        <v>19</v>
+      </c>
+      <c r="F331" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="G331" s="1">
+        <v>17</v>
+      </c>
+      <c r="H331" s="1">
         <v>7</v>
       </c>
-      <c r="E331" s="1">
-        <v>37</v>
-      </c>
-      <c r="F331" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="G331" s="1">
-        <v>10</v>
-      </c>
-      <c r="H331" s="1">
-        <v>5.4</v>
-      </c>
       <c r="I331" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J331" s="1">
-        <v>40.802</v>
+        <v>18.385999999999999</v>
       </c>
       <c r="K331" s="1">
-        <v>47.448</v>
+        <v>-97.436000000000007</v>
       </c>
       <c r="L331" s="4">
-        <v>12012185.491628265</v>
+        <v>507713117.39405531</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -13299,37 +13299,37 @@
         <v>1999</v>
       </c>
       <c r="B332" s="1">
+        <v>2</v>
+      </c>
+      <c r="C332" s="1">
         <v>1</v>
       </c>
-      <c r="C332" s="1">
-        <v>25</v>
-      </c>
       <c r="D332" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E332" s="1">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F332" s="1">
-        <v>16.8</v>
+        <v>52.9</v>
       </c>
       <c r="G332" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H332" s="1">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J332" s="1">
-        <v>18.385999999999999</v>
+        <v>40.76</v>
       </c>
       <c r="K332" s="1">
-        <v>-97.436000000000007</v>
+        <v>29.97</v>
       </c>
       <c r="L332" s="4">
-        <v>507713117.39405531</v>
+        <v>44771879840.745621</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -13340,34 +13340,34 @@
         <v>2</v>
       </c>
       <c r="C333" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D333" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E333" s="1">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F333" s="1">
-        <v>52.9</v>
+        <v>16.8</v>
       </c>
       <c r="G333" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H333" s="1">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J333" s="1">
-        <v>40.76</v>
+        <v>38.119</v>
       </c>
       <c r="K333" s="1">
-        <v>29.97</v>
+        <v>23.605</v>
       </c>
       <c r="L333" s="4">
-        <v>44771879840.745621</v>
+        <v>9402094766.5565796</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -13375,37 +13375,37 @@
         <v>1999</v>
       </c>
       <c r="B334" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C334" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D334" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E334" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F334" s="1">
-        <v>16.8</v>
+        <v>11</v>
       </c>
       <c r="G334" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H334" s="1">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="J334" s="1">
-        <v>38.119</v>
+        <v>23.771999999999998</v>
       </c>
       <c r="K334" s="1">
-        <v>23.605</v>
+        <v>120.982</v>
       </c>
       <c r="L334" s="4">
-        <v>9402094766.5565796</v>
+        <v>31340315888.521931</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -13413,37 +13413,37 @@
         <v>1999</v>
       </c>
       <c r="B335" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C335" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D335" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E335" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F335" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G335" s="1">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H335" s="1">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J335" s="1">
-        <v>23.771999999999998</v>
+        <v>16.059000000000001</v>
       </c>
       <c r="K335" s="1">
-        <v>120.982</v>
+        <v>-96.930999999999997</v>
       </c>
       <c r="L335" s="4">
-        <v>31340315888.521931</v>
+        <v>368920289.88774389</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -13454,34 +13454,34 @@
         <v>6</v>
       </c>
       <c r="C336" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D336" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E336" s="1">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F336" s="1">
-        <v>50</v>
+        <v>5.9</v>
       </c>
       <c r="G336" s="1">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="H336" s="1">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J336" s="1">
-        <v>16.059000000000001</v>
+        <v>23.445</v>
       </c>
       <c r="K336" s="1">
-        <v>-96.930999999999997</v>
+        <v>120.506</v>
       </c>
       <c r="L336" s="4">
-        <v>368920289.88774389</v>
+        <v>1759534.8777413026</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -13489,37 +13489,37 @@
         <v>1999</v>
       </c>
       <c r="B337" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C337" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D337" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E337" s="1">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F337" s="1">
-        <v>5.9</v>
+        <v>39.1</v>
       </c>
       <c r="G337" s="1">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H337" s="1">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J337" s="1">
-        <v>23.445</v>
+        <v>39.899000000000001</v>
       </c>
       <c r="K337" s="1">
-        <v>120.506</v>
+        <v>113.983</v>
       </c>
       <c r="L337" s="4">
-        <v>1759534.8777413026</v>
+        <v>98498135.649640352</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
@@ -13527,37 +13527,37 @@
         <v>1999</v>
       </c>
       <c r="B338" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C338" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D338" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E338" s="1">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F338" s="1">
-        <v>39.1</v>
+        <v>49.3</v>
       </c>
       <c r="G338" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H338" s="1">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J338" s="1">
-        <v>39.899000000000001</v>
+        <v>40.758000000000003</v>
       </c>
       <c r="K338" s="1">
-        <v>113.983</v>
+        <v>31.161000000000001</v>
       </c>
       <c r="L338" s="4">
-        <v>98498135.649640352</v>
+        <v>2238593992.0372806</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
@@ -13568,34 +13568,34 @@
         <v>9</v>
       </c>
       <c r="C339" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D339" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E339" s="1">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F339" s="1">
-        <v>49.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G339" s="1">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H339" s="1">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J339" s="1">
-        <v>40.758000000000003</v>
+        <v>15.766</v>
       </c>
       <c r="K339" s="1">
-        <v>31.161000000000001</v>
+        <v>119.74</v>
       </c>
       <c r="L339" s="4">
-        <v>2238593992.0372806</v>
+        <v>4016037.6217148821</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
@@ -13606,34 +13606,34 @@
         <v>9</v>
       </c>
       <c r="C340" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D340" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E340" s="1">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F340" s="1">
-        <v>18.399999999999999</v>
+        <v>15.6</v>
       </c>
       <c r="G340" s="1">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H340" s="1">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J340" s="1">
-        <v>15.766</v>
+        <v>-6.8449999999999998</v>
       </c>
       <c r="K340" s="1">
-        <v>119.74</v>
+        <v>105.55500000000001</v>
       </c>
       <c r="L340" s="4">
-        <v>4016037.6217148821</v>
+        <v>8730516.5689453948</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
@@ -13641,37 +13641,37 @@
         <v>1999</v>
       </c>
       <c r="B341" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C341" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D341" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E341" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F341" s="1">
-        <v>15.6</v>
+        <v>58.5</v>
       </c>
       <c r="G341" s="1">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H341" s="1">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J341" s="1">
-        <v>-6.8449999999999998</v>
+        <v>35.320999999999998</v>
       </c>
       <c r="K341" s="1">
-        <v>105.55500000000001</v>
+        <v>-1.2809999999999999</v>
       </c>
       <c r="L341" s="4">
-        <v>8730516.5689453948</v>
+        <v>136395293.34083948</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
@@ -13679,37 +13679,37 @@
         <v>1999</v>
       </c>
       <c r="B342" s="1">
+        <v>11</v>
+      </c>
+      <c r="C342" s="1">
+        <v>1</v>
+      </c>
+      <c r="D342" s="1">
+        <v>13</v>
+      </c>
+      <c r="E342" s="1">
+        <v>25</v>
+      </c>
+      <c r="F342" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="G342" s="1">
         <v>10</v>
       </c>
-      <c r="C342" s="1">
-        <v>22</v>
-      </c>
-      <c r="D342" s="1">
-        <v>2</v>
-      </c>
-      <c r="E342" s="1">
-        <v>18</v>
-      </c>
-      <c r="F342" s="1">
-        <v>58.5</v>
-      </c>
-      <c r="G342" s="1">
-        <v>33</v>
-      </c>
       <c r="H342" s="1">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J342" s="1">
-        <v>35.320999999999998</v>
+        <v>25.606999999999999</v>
       </c>
       <c r="K342" s="1">
-        <v>-1.2809999999999999</v>
+        <v>101.063</v>
       </c>
       <c r="L342" s="4">
-        <v>136395293.34083948</v>
+        <v>164536658.41474015</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
@@ -13720,34 +13720,34 @@
         <v>11</v>
       </c>
       <c r="C343" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D343" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E343" s="1">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F343" s="1">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="G343" s="1">
         <v>10</v>
       </c>
       <c r="H343" s="1">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="J343" s="1">
-        <v>25.606999999999999</v>
+        <v>-1.105</v>
       </c>
       <c r="K343" s="1">
-        <v>101.063</v>
+        <v>123.57299999999999</v>
       </c>
       <c r="L343" s="4">
-        <v>164536658.41474015</v>
+        <v>67157819.761118412</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
@@ -13755,37 +13755,37 @@
         <v>1999</v>
       </c>
       <c r="B344" s="1">
+        <v>12</v>
+      </c>
+      <c r="C344" s="1">
         <v>11</v>
       </c>
-      <c r="C344" s="1">
-        <v>12</v>
-      </c>
       <c r="D344" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E344" s="1">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F344" s="1">
-        <v>19.5</v>
+        <v>36.4</v>
       </c>
       <c r="G344" s="1">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H344" s="1">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="I344" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J344" s="1">
-        <v>-1.105</v>
+        <v>-4.7210000000000001</v>
       </c>
       <c r="K344" s="1">
-        <v>123.57299999999999</v>
+        <v>102.087</v>
       </c>
       <c r="L344" s="4">
-        <v>67157819.761118412</v>
+        <v>13431563.952223685</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
@@ -13796,34 +13796,34 @@
         <v>12</v>
       </c>
       <c r="C345" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D345" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E345" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F345" s="1">
-        <v>36.4</v>
+        <v>57.6</v>
       </c>
       <c r="G345" s="1">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H345" s="1">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="I345" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J345" s="1">
-        <v>-4.7210000000000001</v>
+        <v>63.966000000000001</v>
       </c>
       <c r="K345" s="1">
-        <v>102.087</v>
+        <v>-20.486999999999998</v>
       </c>
       <c r="L345" s="4">
-        <v>13431563.952223685</v>
+        <v>44771879.84074562</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
@@ -13834,19 +13834,19 @@
         <v>12</v>
       </c>
       <c r="C346" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D346" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E346" s="1">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F346" s="1">
-        <v>57.6</v>
+        <v>56.2</v>
       </c>
       <c r="G346" s="1">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H346" s="1">
         <v>6.5</v>
@@ -13855,51 +13855,51 @@
         <v>65</v>
       </c>
       <c r="J346" s="1">
-        <v>63.966000000000001</v>
+        <v>63.98</v>
       </c>
       <c r="K346" s="1">
-        <v>-20.486999999999998</v>
+        <v>-20.757999999999999</v>
       </c>
       <c r="L346" s="4">
-        <v>44771879.84074562</v>
+        <v>26863127.904447369</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B347" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C347" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D347" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E347" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F347" s="1">
-        <v>56.2</v>
+        <v>7.8</v>
       </c>
       <c r="G347" s="1">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H347" s="1">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J347" s="1">
-        <v>63.98</v>
+        <v>48.786000000000001</v>
       </c>
       <c r="K347" s="1">
-        <v>-20.757999999999999</v>
+        <v>142.24600000000001</v>
       </c>
       <c r="L347" s="4">
-        <v>26863127.904447369</v>
+        <v>1897648.2404045023</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
@@ -13907,37 +13907,37 @@
         <v>2000</v>
       </c>
       <c r="B348" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C348" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D348" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E348" s="1">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F348" s="1">
-        <v>7.8</v>
+        <v>16.2</v>
       </c>
       <c r="G348" s="1">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H348" s="1">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="J348" s="1">
-        <v>48.786000000000001</v>
+        <v>25.826000000000001</v>
       </c>
       <c r="K348" s="1">
-        <v>142.24600000000001</v>
+        <v>102.194</v>
       </c>
       <c r="L348" s="4">
-        <v>1897648.2404045023</v>
+        <v>88694428.627601743</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
@@ -13945,37 +13945,37 @@
         <v>2000</v>
       </c>
       <c r="B349" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C349" s="1">
         <v>4</v>
       </c>
       <c r="D349" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E349" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F349" s="1">
-        <v>16.2</v>
+        <v>26.1</v>
       </c>
       <c r="G349" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H349" s="1">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="J349" s="1">
-        <v>25.826000000000001</v>
+        <v>38.378999999999998</v>
       </c>
       <c r="K349" s="1">
-        <v>102.194</v>
+        <v>-122.413</v>
       </c>
       <c r="L349" s="4">
-        <v>88694428.627601743</v>
+        <v>103133056.54372294</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -13986,34 +13986,34 @@
         <v>6</v>
       </c>
       <c r="C350" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D350" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E350" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F350" s="1">
-        <v>26.1</v>
+        <v>41.7</v>
       </c>
       <c r="G350" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H350" s="1">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J350" s="1">
-        <v>38.378999999999998</v>
+        <v>35.456000000000003</v>
       </c>
       <c r="K350" s="1">
-        <v>-122.413</v>
+        <v>133.13399999999999</v>
       </c>
       <c r="L350" s="4">
-        <v>103133056.54372294</v>
+        <v>309399169.6311689</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -14024,34 +14024,34 @@
         <v>6</v>
       </c>
       <c r="C351" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D351" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E351" s="1">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F351" s="1">
-        <v>41.7</v>
+        <v>46.8</v>
       </c>
       <c r="G351" s="1">
         <v>10</v>
       </c>
       <c r="H351" s="1">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J351" s="1">
-        <v>35.456000000000003</v>
+        <v>13.048999999999999</v>
       </c>
       <c r="K351" s="1">
-        <v>133.13399999999999</v>
+        <v>-88.66</v>
       </c>
       <c r="L351" s="4">
-        <v>309399169.6311689</v>
+        <v>1553183831.5484676</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
@@ -14059,19 +14059,19 @@
         <v>2000</v>
       </c>
       <c r="B352" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C352" s="1">
+        <v>4</v>
+      </c>
+      <c r="D352" s="1">
         <v>21</v>
       </c>
-      <c r="D352" s="1">
-        <v>0</v>
-      </c>
       <c r="E352" s="1">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F352" s="1">
-        <v>46.8</v>
+        <v>2.7</v>
       </c>
       <c r="G352" s="1">
         <v>10</v>
@@ -14080,16 +14080,16 @@
         <v>7.7</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J352" s="1">
-        <v>13.048999999999999</v>
+        <v>23.419</v>
       </c>
       <c r="K352" s="1">
-        <v>-88.66</v>
+        <v>70.231999999999999</v>
       </c>
       <c r="L352" s="4">
-        <v>1553183831.5484676</v>
+        <v>5410360146.2837057</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -14100,34 +14100,34 @@
         <v>8</v>
       </c>
       <c r="C353" s="1">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D353" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E353" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F353" s="1">
-        <v>2.7</v>
+        <v>44.5</v>
       </c>
       <c r="G353" s="1">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H353" s="1">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J353" s="1">
-        <v>23.419</v>
+        <v>13.670999999999999</v>
       </c>
       <c r="K353" s="1">
-        <v>70.231999999999999</v>
+        <v>-88.938000000000002</v>
       </c>
       <c r="L353" s="4">
-        <v>5410360146.2837057</v>
+        <v>718837404.10974908</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -14135,37 +14135,37 @@
         <v>2000</v>
       </c>
       <c r="B354" s="1">
+        <v>9</v>
+      </c>
+      <c r="C354" s="1">
+        <v>3</v>
+      </c>
+      <c r="D354" s="1">
         <v>8</v>
       </c>
-      <c r="C354" s="1">
-        <v>21</v>
-      </c>
-      <c r="D354" s="1">
-        <v>13</v>
-      </c>
       <c r="E354" s="1">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F354" s="1">
-        <v>44.5</v>
+        <v>30</v>
       </c>
       <c r="G354" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H354" s="1">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="J354" s="1">
-        <v>13.670999999999999</v>
+        <v>47.149000000000001</v>
       </c>
       <c r="K354" s="1">
-        <v>-88.938000000000002</v>
+        <v>-122.727</v>
       </c>
       <c r="L354" s="4">
-        <v>718837404.10974908</v>
+        <v>4125322261.7489181</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -14173,19 +14173,19 @@
         <v>2000</v>
       </c>
       <c r="B355" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C355" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D355" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E355" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F355" s="1">
-        <v>30</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="G355" s="1">
         <v>10</v>
@@ -14194,54 +14194,54 @@
         <v>6.8</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J355" s="1">
-        <v>47.149000000000001</v>
+        <v>34.082999999999998</v>
       </c>
       <c r="K355" s="1">
-        <v>-122.727</v>
+        <v>132.52600000000001</v>
       </c>
       <c r="L355" s="4">
-        <v>4125322261.7489181</v>
+        <v>1031330565.4372295</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B356" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C356" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D356" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E356" s="1">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F356" s="1">
-        <v>19.100000000000001</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G356" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H356" s="1">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J356" s="1">
-        <v>34.082999999999998</v>
+        <v>27.689</v>
       </c>
       <c r="K356" s="1">
-        <v>132.52600000000001</v>
+        <v>101.003</v>
       </c>
       <c r="L356" s="4">
-        <v>1031330565.4372295</v>
+        <v>68763135.610857159</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -14252,34 +14252,34 @@
         <v>1</v>
       </c>
       <c r="C357" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D357" s="1">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E357" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F357" s="1">
-        <v>32.299999999999997</v>
+        <v>40.5</v>
       </c>
       <c r="G357" s="1">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H357" s="1">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J357" s="1">
-        <v>27.689</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="K357" s="1">
-        <v>101.003</v>
+        <v>124.249</v>
       </c>
       <c r="L357" s="4">
-        <v>68763135.610857159</v>
+        <v>3273889.2899169214</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -14287,37 +14287,37 @@
         <v>2001</v>
       </c>
       <c r="B358" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C358" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D358" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E358" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F358" s="1">
-        <v>40.5</v>
+        <v>5.8</v>
       </c>
       <c r="G358" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H358" s="1">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="J358" s="1">
-        <v>6.0330000000000004</v>
+        <v>35.625999999999998</v>
       </c>
       <c r="K358" s="1">
-        <v>124.249</v>
+        <v>49.046999999999997</v>
       </c>
       <c r="L358" s="4">
-        <v>3273889.2899169214</v>
+        <v>573026130.09047639</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -14328,34 +14328,34 @@
         <v>2</v>
       </c>
       <c r="C359" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D359" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E359" s="1">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F359" s="1">
-        <v>5.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="G359" s="1">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H359" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="J359" s="1">
-        <v>35.625999999999998</v>
+        <v>38.381</v>
       </c>
       <c r="K359" s="1">
-        <v>49.046999999999997</v>
+        <v>13.701000000000001</v>
       </c>
       <c r="L359" s="4">
-        <v>573026130.09047639</v>
+        <v>955043550.15079403</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -14363,37 +14363,37 @@
         <v>2001</v>
       </c>
       <c r="B360" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C360" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D360" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E360" s="1">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F360" s="1">
-        <v>32.799999999999997</v>
+        <v>53.5</v>
       </c>
       <c r="G360" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H360" s="1">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I360" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J360" s="1">
-        <v>38.381</v>
+        <v>41.789000000000001</v>
       </c>
       <c r="K360" s="1">
-        <v>13.701000000000001</v>
+        <v>14.872</v>
       </c>
       <c r="L360" s="4">
-        <v>955043550.15079403</v>
+        <v>1520429331.840064</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -14401,75 +14401,75 @@
         <v>2001</v>
       </c>
       <c r="B361" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C361" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D361" s="1">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E361" s="1">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F361" s="1">
-        <v>53.5</v>
+        <v>43.9</v>
       </c>
       <c r="G361" s="1">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H361" s="1">
-        <v>5.7</v>
+        <v>7.9</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="J361" s="1">
-        <v>41.789000000000001</v>
+        <v>63.517000000000003</v>
       </c>
       <c r="K361" s="1">
-        <v>14.872</v>
+        <v>-147.44399999999999</v>
       </c>
       <c r="L361" s="4">
-        <v>1520429331.840064</v>
+        <v>106964877.61688894</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B362" s="1">
+        <v>3</v>
+      </c>
+      <c r="C362" s="1">
         <v>5</v>
-      </c>
-      <c r="C362" s="1">
-        <v>23</v>
       </c>
       <c r="D362" s="1">
         <v>21</v>
       </c>
       <c r="E362" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F362" s="1">
-        <v>43.9</v>
+        <v>9.1</v>
       </c>
       <c r="G362" s="1">
+        <v>31</v>
+      </c>
+      <c r="H362" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="I362" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H362" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="I362" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="J362" s="1">
-        <v>63.517000000000003</v>
+        <v>36.963999999999999</v>
       </c>
       <c r="K362" s="1">
-        <v>-147.44399999999999</v>
+        <v>3.6339999999999999</v>
       </c>
       <c r="L362" s="4">
-        <v>106964877.61688894</v>
+        <v>8955081839.3058662</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -14477,37 +14477,37 @@
         <v>2002</v>
       </c>
       <c r="B363" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C363" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D363" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E363" s="1">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F363" s="1">
-        <v>9.1</v>
+        <v>21.3</v>
       </c>
       <c r="G363" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H363" s="1">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J363" s="1">
-        <v>36.963999999999999</v>
+        <v>38.848999999999997</v>
       </c>
       <c r="K363" s="1">
-        <v>3.6339999999999999</v>
+        <v>141.56800000000001</v>
       </c>
       <c r="L363" s="4">
-        <v>8955081839.3058662</v>
+        <v>417306813.71165335</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -14515,37 +14515,37 @@
         <v>2002</v>
       </c>
       <c r="B364" s="1">
+        <v>9</v>
+      </c>
+      <c r="C364" s="1">
         <v>6</v>
       </c>
-      <c r="C364" s="1">
-        <v>22</v>
-      </c>
       <c r="D364" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E364" s="1">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="F364" s="1">
-        <v>21.3</v>
+        <v>28.6</v>
       </c>
       <c r="G364" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H364" s="1">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J364" s="1">
-        <v>38.848999999999997</v>
+        <v>25.975000000000001</v>
       </c>
       <c r="K364" s="1">
-        <v>141.56800000000001</v>
+        <v>101.29</v>
       </c>
       <c r="L364" s="4">
-        <v>417306813.71165335</v>
+        <v>134326227.58958799</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -14553,37 +14553,37 @@
         <v>2002</v>
       </c>
       <c r="B365" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C365" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D365" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E365" s="1">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F365" s="1">
-        <v>28.6</v>
+        <v>58.7</v>
       </c>
       <c r="G365" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H365" s="1">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J365" s="1">
-        <v>25.975000000000001</v>
+        <v>38.432000000000002</v>
       </c>
       <c r="K365" s="1">
-        <v>101.29</v>
+        <v>141.00299999999999</v>
       </c>
       <c r="L365" s="4">
-        <v>134326227.58958799</v>
+        <v>736107727.19094229</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -14591,75 +14591,75 @@
         <v>2002</v>
       </c>
       <c r="B366" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C366" s="1">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D366" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E366" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F366" s="1">
-        <v>58.7</v>
+        <v>41</v>
       </c>
       <c r="G366" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H366" s="1">
-        <v>5.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I366" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J366" s="1">
-        <v>38.432000000000002</v>
+        <v>41.814999999999998</v>
       </c>
       <c r="K366" s="1">
-        <v>141.00299999999999</v>
+        <v>143.91</v>
       </c>
       <c r="L366" s="4">
-        <v>736107727.19094229</v>
+        <v>161191473.10750559</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B367" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C367" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D367" s="1">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E367" s="1">
+        <v>44</v>
+      </c>
+      <c r="F367" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G367" s="1">
         <v>12</v>
       </c>
-      <c r="F367" s="1">
-        <v>41</v>
-      </c>
-      <c r="G367" s="1">
-        <v>5</v>
-      </c>
       <c r="H367" s="1">
-        <v>8.3000000000000007</v>
+        <v>7.3</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J367" s="1">
-        <v>41.814999999999998</v>
+        <v>50.037999999999997</v>
       </c>
       <c r="K367" s="1">
-        <v>143.91</v>
+        <v>87.813000000000002</v>
       </c>
       <c r="L367" s="4">
-        <v>161191473.10750559</v>
+        <v>17679728.807811219</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -14670,34 +14670,34 @@
         <v>5</v>
       </c>
       <c r="C368" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D368" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E368" s="1">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F368" s="1">
-        <v>20.100000000000001</v>
+        <v>33.4</v>
       </c>
       <c r="G368" s="1">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H368" s="1">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="J368" s="1">
-        <v>50.037999999999997</v>
+        <v>38.4</v>
       </c>
       <c r="K368" s="1">
-        <v>87.813000000000002</v>
+        <v>100.95099999999999</v>
       </c>
       <c r="L368" s="4">
-        <v>17679728.807811219</v>
+        <v>66715957.76532536</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -14705,37 +14705,37 @@
         <v>2003</v>
       </c>
       <c r="B369" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C369" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D369" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E369" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F369" s="1">
-        <v>33.4</v>
+        <v>31.9</v>
       </c>
       <c r="G369" s="1">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="H369" s="1">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="J369" s="1">
-        <v>38.4</v>
+        <v>35.706000000000003</v>
       </c>
       <c r="K369" s="1">
-        <v>100.95099999999999</v>
+        <v>-121.102</v>
       </c>
       <c r="L369" s="4">
-        <v>66715957.76532536</v>
+        <v>500369683.23994017</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -14746,16 +14746,16 @@
         <v>7</v>
       </c>
       <c r="C370" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D370" s="1">
         <v>15</v>
       </c>
       <c r="E370" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F370" s="1">
-        <v>31.9</v>
+        <v>7.7</v>
       </c>
       <c r="G370" s="1">
         <v>10</v>
@@ -14764,16 +14764,16 @@
         <v>6.6</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J370" s="1">
-        <v>35.706000000000003</v>
+        <v>28.995000000000001</v>
       </c>
       <c r="K370" s="1">
-        <v>-121.102</v>
+        <v>58.311</v>
       </c>
       <c r="L370" s="4">
-        <v>500369683.23994017</v>
+        <v>54540295.473153479</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -14781,37 +14781,37 @@
         <v>2003</v>
       </c>
       <c r="B371" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C371" s="1">
         <v>25</v>
       </c>
       <c r="D371" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E371" s="1">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F371" s="1">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="G371" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H371" s="1">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="J371" s="1">
-        <v>28.995000000000001</v>
+        <v>45.381999999999998</v>
       </c>
       <c r="K371" s="1">
-        <v>58.311</v>
+        <v>118.256</v>
       </c>
       <c r="L371" s="4">
-        <v>54540295.473153479</v>
+        <v>123424521.86585191</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -14822,34 +14822,34 @@
         <v>9</v>
       </c>
       <c r="C372" s="1">
+        <v>27</v>
+      </c>
+      <c r="D372" s="1">
+        <v>11</v>
+      </c>
+      <c r="E372" s="1">
+        <v>33</v>
+      </c>
+      <c r="F372" s="1">
         <v>25</v>
       </c>
-      <c r="D372" s="1">
-        <v>19</v>
-      </c>
-      <c r="E372" s="1">
-        <v>50</v>
-      </c>
-      <c r="F372" s="1">
-        <v>6.3</v>
-      </c>
       <c r="G372" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H372" s="1">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J372" s="1">
-        <v>45.381999999999998</v>
+        <v>37.225999999999999</v>
       </c>
       <c r="K372" s="1">
-        <v>118.256</v>
+        <v>138.779</v>
       </c>
       <c r="L372" s="4">
-        <v>123424521.86585191</v>
+        <v>46701170435.727753</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -14857,37 +14857,37 @@
         <v>2003</v>
       </c>
       <c r="B373" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C373" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D373" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E373" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F373" s="1">
-        <v>25</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="G373" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H373" s="1">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="J373" s="1">
-        <v>37.225999999999999</v>
+        <v>-3.609</v>
       </c>
       <c r="K373" s="1">
-        <v>138.779</v>
+        <v>135.404</v>
       </c>
       <c r="L373" s="4">
-        <v>46701170435.727753</v>
+        <v>91734441.927322358</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -14895,37 +14895,37 @@
         <v>2003</v>
       </c>
       <c r="B374" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C374" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D374" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E374" s="1">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F374" s="1">
-        <v>35.200000000000003</v>
+        <v>56</v>
       </c>
       <c r="G374" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H374" s="1">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="I374" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J374" s="1">
-        <v>-3.609</v>
+        <v>3.3159999999999998</v>
       </c>
       <c r="K374" s="1">
-        <v>135.404</v>
+        <v>95.853999999999999</v>
       </c>
       <c r="L374" s="4">
-        <v>91734441.927322358</v>
+        <v>16678989441.331337</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -14936,72 +14936,72 @@
         <v>12</v>
       </c>
       <c r="C375" s="1">
+        <v>26</v>
+      </c>
+      <c r="D375" s="1">
+        <v>1</v>
+      </c>
+      <c r="E375" s="1">
+        <v>56</v>
+      </c>
+      <c r="F375" s="1">
+        <v>52.4</v>
+      </c>
+      <c r="G375" s="1">
+        <v>10</v>
+      </c>
+      <c r="H375" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="I375" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D375" s="1">
-        <v>19</v>
-      </c>
-      <c r="E375" s="1">
-        <v>15</v>
-      </c>
-      <c r="F375" s="1">
-        <v>56</v>
-      </c>
-      <c r="G375" s="1">
-        <v>8</v>
-      </c>
-      <c r="H375" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="I375" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="J375" s="1">
-        <v>3.3159999999999998</v>
+        <v>34.539000000000001</v>
       </c>
       <c r="K375" s="1">
-        <v>95.853999999999999</v>
+        <v>73.587999999999994</v>
       </c>
       <c r="L375" s="4">
-        <v>16678989441.331337</v>
+        <v>8673074509.4922962</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B376" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C376" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D376" s="1">
         <v>1</v>
       </c>
       <c r="E376" s="1">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F376" s="1">
-        <v>52.4</v>
+        <v>49.4</v>
       </c>
       <c r="G376" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H376" s="1">
         <v>7.6</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="J376" s="1">
-        <v>34.539000000000001</v>
+        <v>60.948999999999998</v>
       </c>
       <c r="K376" s="1">
-        <v>73.587999999999994</v>
+        <v>167.089</v>
       </c>
       <c r="L376" s="4">
-        <v>8673074509.4922962</v>
+        <v>85081388.171873361</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -15009,37 +15009,37 @@
         <v>2004</v>
       </c>
       <c r="B377" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C377" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D377" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E377" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F377" s="1">
-        <v>49.4</v>
+        <v>0.8</v>
       </c>
       <c r="G377" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H377" s="1">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J377" s="1">
-        <v>60.948999999999998</v>
+        <v>-7.9610000000000003</v>
       </c>
       <c r="K377" s="1">
-        <v>167.089</v>
+        <v>110.446</v>
       </c>
       <c r="L377" s="4">
-        <v>85081388.171873361</v>
+        <v>4795496424.2328615</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -15047,37 +15047,37 @@
         <v>2004</v>
       </c>
       <c r="B378" s="1">
+        <v>11</v>
+      </c>
+      <c r="C378" s="1">
+        <v>26</v>
+      </c>
+      <c r="D378" s="1">
+        <v>2</v>
+      </c>
+      <c r="E378" s="1">
+        <v>25</v>
+      </c>
+      <c r="F378" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="G378" s="1">
         <v>10</v>
       </c>
-      <c r="C378" s="1">
-        <v>23</v>
-      </c>
-      <c r="D378" s="1">
-        <v>8</v>
-      </c>
-      <c r="E378" s="1">
-        <v>56</v>
-      </c>
-      <c r="F378" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G378" s="1">
-        <v>16</v>
-      </c>
       <c r="H378" s="1">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="J378" s="1">
-        <v>-7.9610000000000003</v>
+        <v>19.878</v>
       </c>
       <c r="K378" s="1">
-        <v>110.446</v>
+        <v>-155.935</v>
       </c>
       <c r="L378" s="4">
-        <v>4795496424.2328615</v>
+        <v>112926206.11903191</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -15085,113 +15085,113 @@
         <v>2004</v>
       </c>
       <c r="B379" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C379" s="1">
         <v>26</v>
       </c>
       <c r="D379" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E379" s="1">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F379" s="1">
-        <v>3.3</v>
+        <v>53.4</v>
       </c>
       <c r="G379" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H379" s="1">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="J379" s="1">
-        <v>19.878</v>
+        <v>23.027999999999999</v>
       </c>
       <c r="K379" s="1">
-        <v>-155.935</v>
+        <v>101.05200000000001</v>
       </c>
       <c r="L379" s="4">
-        <v>112926206.11903191</v>
+        <v>479549642.4232862</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B380" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C380" s="1">
+        <v>8</v>
+      </c>
+      <c r="D380" s="1">
+        <v>3</v>
+      </c>
+      <c r="E380" s="1">
+        <v>50</v>
+      </c>
+      <c r="F380" s="1">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G380" s="1">
         <v>26</v>
       </c>
-      <c r="D380" s="1">
-        <v>0</v>
-      </c>
-      <c r="E380" s="1">
-        <v>58</v>
-      </c>
-      <c r="F380" s="1">
-        <v>53.4</v>
-      </c>
-      <c r="G380" s="1">
-        <v>30</v>
-      </c>
       <c r="H380" s="1">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J380" s="1">
-        <v>23.027999999999999</v>
+        <v>37.57</v>
       </c>
       <c r="K380" s="1">
-        <v>101.05200000000001</v>
+        <v>138.47800000000001</v>
       </c>
       <c r="L380" s="4">
-        <v>479549642.4232862</v>
+        <v>17812394546.370968</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B381" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C381" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D381" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E381" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F381" s="1">
-        <v>40.799999999999997</v>
+        <v>2.1</v>
       </c>
       <c r="G381" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H381" s="1">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J381" s="1">
-        <v>37.57</v>
+        <v>31.001999999999999</v>
       </c>
       <c r="K381" s="1">
-        <v>138.47800000000001</v>
+        <v>103.322</v>
       </c>
       <c r="L381" s="4">
-        <v>17812394546.370968</v>
+        <v>113066294906.25003</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -15199,37 +15199,37 @@
         <v>2006</v>
       </c>
       <c r="B382" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C382" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D382" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E382" s="1">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F382" s="1">
-        <v>2.1</v>
+        <v>58.9</v>
       </c>
       <c r="G382" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H382" s="1">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="I382" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J382" s="1">
-        <v>31.001999999999999</v>
+        <v>37.564999999999998</v>
       </c>
       <c r="K382" s="1">
-        <v>103.322</v>
+        <v>95.832999999999998</v>
       </c>
       <c r="L382" s="4">
-        <v>113066294906.25003</v>
+        <v>5258897.4375000009</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -15237,75 +15237,75 @@
         <v>2006</v>
       </c>
       <c r="B383" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C383" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D383" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E383" s="1">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="F383" s="1">
-        <v>58.9</v>
+        <v>49.2</v>
       </c>
       <c r="G383" s="1">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H383" s="1">
         <v>6.3</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J383" s="1">
-        <v>37.564999999999998</v>
+        <v>42.334000000000003</v>
       </c>
       <c r="K383" s="1">
-        <v>95.832999999999998</v>
+        <v>13.334</v>
       </c>
       <c r="L383" s="4">
-        <v>5258897.4375000009</v>
+        <v>3286810898.437501</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B384" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C384" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D384" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E384" s="1">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F384" s="1">
-        <v>49.2</v>
+        <v>57.7</v>
       </c>
       <c r="G384" s="1">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="H384" s="1">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J384" s="1">
-        <v>42.334000000000003</v>
+        <v>-0.72</v>
       </c>
       <c r="K384" s="1">
-        <v>13.334</v>
+        <v>99.867000000000004</v>
       </c>
       <c r="L384" s="4">
-        <v>3286810898.437501</v>
+        <v>2678374711.3464708</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -15313,60 +15313,60 @@
         <v>2007</v>
       </c>
       <c r="B385" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C385" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D385" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E385" s="1">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F385" s="1">
-        <v>57.7</v>
+        <v>22</v>
       </c>
       <c r="G385" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H385" s="1">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="I385" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J385" s="1">
-        <v>-0.72</v>
+        <v>-2.5150000000000001</v>
       </c>
       <c r="K385" s="1">
-        <v>99.867000000000004</v>
+        <v>101.501</v>
       </c>
       <c r="L385" s="4">
-        <v>2678374711.3464708</v>
+        <v>12174430.506120326</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B386" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C386" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D386" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E386" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F386" s="1">
-        <v>22</v>
+        <v>1.5</v>
       </c>
       <c r="G386" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H386" s="1">
         <v>6.6</v>
@@ -15375,13 +15375,13 @@
         <v>46</v>
       </c>
       <c r="J386" s="1">
-        <v>-2.5150000000000001</v>
+        <v>-8.2070000000000007</v>
       </c>
       <c r="K386" s="1">
-        <v>101.501</v>
+        <v>118.631</v>
       </c>
       <c r="L386" s="4">
-        <v>12174430.506120326</v>
+        <v>2713331.3432697179</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -15389,75 +15389,75 @@
         <v>2008</v>
       </c>
       <c r="B387" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C387" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D387" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E387" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F387" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G387" s="1">
         <v>19</v>
       </c>
       <c r="H387" s="1">
-        <v>6.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J387" s="1">
-        <v>-8.2070000000000007</v>
+        <v>38.244999999999997</v>
       </c>
       <c r="K387" s="1">
-        <v>118.631</v>
+        <v>71.466999999999999</v>
       </c>
       <c r="L387" s="4">
-        <v>2713331.3432697179</v>
+        <v>1674895.8909072331</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B388" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C388" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D388" s="1">
         <v>1</v>
       </c>
       <c r="E388" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F388" s="1">
-        <v>2.5</v>
+        <v>39</v>
       </c>
       <c r="G388" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H388" s="1">
-        <v>5.0999999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J388" s="1">
-        <v>38.244999999999997</v>
+        <v>40.652000000000001</v>
       </c>
       <c r="K388" s="1">
-        <v>71.466999999999999</v>
+        <v>-124.69199999999999</v>
       </c>
       <c r="L388" s="4">
-        <v>1674895.8909072331</v>
+        <v>23265459.291404281</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -15465,37 +15465,37 @@
         <v>2009</v>
       </c>
       <c r="B389" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C389" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D389" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E389" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F389" s="1">
-        <v>39</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G389" s="1">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="H389" s="1">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J389" s="1">
-        <v>40.652000000000001</v>
+        <v>18.457000000000001</v>
       </c>
       <c r="K389" s="1">
-        <v>-124.69199999999999</v>
+        <v>-72.533000000000001</v>
       </c>
       <c r="L389" s="4">
-        <v>23265459.291404281</v>
+        <v>8537783226.2034044</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -15503,37 +15503,37 @@
         <v>2009</v>
       </c>
       <c r="B390" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C390" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D390" s="1">
+        <v>1</v>
+      </c>
+      <c r="E390" s="1">
+        <v>52</v>
+      </c>
+      <c r="F390" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="G390" s="1">
         <v>10</v>
       </c>
-      <c r="E390" s="1">
-        <v>16</v>
-      </c>
-      <c r="F390" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G390" s="1">
-        <v>81</v>
-      </c>
       <c r="H390" s="1">
-        <v>7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J390" s="1">
-        <v>18.457000000000001</v>
+        <v>-36.122</v>
       </c>
       <c r="K390" s="1">
-        <v>-72.533000000000001</v>
+        <v>-72.897999999999996</v>
       </c>
       <c r="L390" s="4">
-        <v>8537783226.2034044</v>
+        <v>32016687098.262772</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -15541,75 +15541,75 @@
         <v>2009</v>
       </c>
       <c r="B391" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C391" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D391" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E391" s="1">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F391" s="1">
-        <v>27.3</v>
+        <v>43.3</v>
       </c>
       <c r="G391" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H391" s="1">
-        <v>8.8000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="J391" s="1">
-        <v>-36.122</v>
+        <v>22.917999999999999</v>
       </c>
       <c r="K391" s="1">
-        <v>-72.897999999999996</v>
+        <v>120.795</v>
       </c>
       <c r="L391" s="4">
-        <v>32016687098.262772</v>
+        <v>1067222903.2754256</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B392" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C392" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D392" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E392" s="1">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F392" s="1">
-        <v>43.3</v>
+        <v>12</v>
       </c>
       <c r="G392" s="1">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H392" s="1">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J392" s="1">
-        <v>22.917999999999999</v>
+        <v>32.296999999999997</v>
       </c>
       <c r="K392" s="1">
-        <v>120.795</v>
+        <v>-115.27800000000001</v>
       </c>
       <c r="L392" s="4">
-        <v>1067222903.2754256</v>
+        <v>1150000000</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -15620,34 +15620,34 @@
         <v>1</v>
       </c>
       <c r="C393" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D393" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E393" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F393" s="1">
-        <v>12</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="G393" s="1">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H393" s="1">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J393" s="1">
-        <v>32.296999999999997</v>
+        <v>33.164999999999999</v>
       </c>
       <c r="K393" s="1">
-        <v>-115.27800000000001</v>
+        <v>96.548000000000002</v>
       </c>
       <c r="L393" s="4">
-        <v>1150000000</v>
+        <v>500000000</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -15658,34 +15658,34 @@
         <v>1</v>
       </c>
       <c r="C394" s="1">
+        <v>12</v>
+      </c>
+      <c r="D394" s="1">
+        <v>21</v>
+      </c>
+      <c r="E394" s="1">
+        <v>53</v>
+      </c>
+      <c r="F394" s="1">
         <v>10</v>
       </c>
-      <c r="D394" s="1">
-        <v>0</v>
-      </c>
-      <c r="E394" s="1">
-        <v>27</v>
-      </c>
-      <c r="F394" s="1">
-        <v>39.299999999999997</v>
-      </c>
       <c r="G394" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H394" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J394" s="1">
-        <v>33.164999999999999</v>
+        <v>-43.521999999999998</v>
       </c>
       <c r="K394" s="1">
-        <v>96.548000000000002</v>
+        <v>171.83</v>
       </c>
       <c r="L394" s="4">
-        <v>500000000</v>
+        <v>6500000000</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -15693,37 +15693,37 @@
         <v>2010</v>
       </c>
       <c r="B395" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C395" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D395" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E395" s="1">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F395" s="1">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="G395" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H395" s="1">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="I395" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J395" s="1">
-        <v>-43.521999999999998</v>
+        <v>-43.582999999999998</v>
       </c>
       <c r="K395" s="1">
-        <v>171.83</v>
+        <v>172.68</v>
       </c>
       <c r="L395" s="4">
-        <v>6500000000</v>
+        <v>15000000000</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -15731,37 +15731,37 @@
         <v>2010</v>
       </c>
       <c r="B396" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C396" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D396" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E396" s="1">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F396" s="1">
-        <v>11.5</v>
+        <v>51.2</v>
       </c>
       <c r="G396" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H396" s="1">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J396" s="1">
-        <v>-43.582999999999998</v>
+        <v>20.687000000000001</v>
       </c>
       <c r="K396" s="1">
-        <v>172.68</v>
+        <v>99.822000000000003</v>
       </c>
       <c r="L396" s="4">
-        <v>15000000000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -15769,37 +15769,37 @@
         <v>2010</v>
       </c>
       <c r="B397" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C397" s="1">
         <v>4</v>
       </c>
       <c r="D397" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E397" s="1">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F397" s="1">
-        <v>51.2</v>
+        <v>43.1</v>
       </c>
       <c r="G397" s="1">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H397" s="1">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J397" s="1">
-        <v>20.687000000000001</v>
+        <v>-43.564</v>
       </c>
       <c r="K397" s="1">
-        <v>99.822000000000003</v>
+        <v>172.74299999999999</v>
       </c>
       <c r="L397" s="4">
-        <v>3600000</v>
+        <v>3000000000</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -15810,34 +15810,34 @@
         <v>4</v>
       </c>
       <c r="C398" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D398" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E398" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F398" s="1">
-        <v>43.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G398" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H398" s="1">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J398" s="1">
-        <v>-43.564</v>
+        <v>27.73</v>
       </c>
       <c r="K398" s="1">
-        <v>172.74299999999999</v>
+        <v>88.155000000000001</v>
       </c>
       <c r="L398" s="4">
-        <v>3000000000</v>
+        <v>22300000</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -15845,75 +15845,75 @@
         <v>2010</v>
       </c>
       <c r="B399" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C399" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D399" s="1">
+        <v>16</v>
+      </c>
+      <c r="E399" s="1">
+        <v>35</v>
+      </c>
+      <c r="F399" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="G399" s="1">
+        <v>12</v>
+      </c>
+      <c r="H399" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="I399" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E399" s="1">
-        <v>49</v>
-      </c>
-      <c r="F399" s="1">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="G399" s="1">
-        <v>17</v>
-      </c>
-      <c r="H399" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="I399" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J399" s="1">
-        <v>27.73</v>
+        <v>38.722000000000001</v>
       </c>
       <c r="K399" s="1">
-        <v>88.155000000000001</v>
+        <v>43.512999999999998</v>
       </c>
       <c r="L399" s="4">
-        <v>22300000</v>
+        <v>1500000000</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B400" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C400" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D400" s="1">
+        <v>23</v>
+      </c>
+      <c r="E400" s="1">
+        <v>51</v>
+      </c>
+      <c r="F400" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="G400" s="1">
+        <v>6</v>
+      </c>
+      <c r="H400" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="I400" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E400" s="1">
-        <v>35</v>
-      </c>
-      <c r="F400" s="1">
-        <v>47.7</v>
-      </c>
-      <c r="G400" s="1">
-        <v>12</v>
-      </c>
-      <c r="H400" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="I400" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J400" s="1">
-        <v>38.722000000000001</v>
+        <v>43.648000000000003</v>
       </c>
       <c r="K400" s="1">
-        <v>43.512999999999998</v>
+        <v>82.436999999999998</v>
       </c>
       <c r="L400" s="4">
-        <v>1500000000</v>
+        <v>9694005.9304967131</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -15921,37 +15921,37 @@
         <v>2011</v>
       </c>
       <c r="B401" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C401" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D401" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E401" s="1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F401" s="1">
-        <v>42.3</v>
+        <v>12</v>
       </c>
       <c r="G401" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H401" s="1">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J401" s="1">
-        <v>43.648000000000003</v>
+        <v>9.9990000000000006</v>
       </c>
       <c r="K401" s="1">
-        <v>82.436999999999998</v>
+        <v>123.206</v>
       </c>
       <c r="L401" s="4">
-        <v>9694005.9304967131</v>
+        <v>13848579.90070959</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -15959,37 +15959,37 @@
         <v>2011</v>
       </c>
       <c r="B402" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C402" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D402" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E402" s="1">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F402" s="1">
-        <v>12</v>
+        <v>49.3</v>
       </c>
       <c r="G402" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H402" s="1">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J402" s="1">
-        <v>9.9990000000000006</v>
+        <v>44.850999999999999</v>
       </c>
       <c r="K402" s="1">
-        <v>123.206</v>
+        <v>11.086</v>
       </c>
       <c r="L402" s="4">
-        <v>13848579.90070959</v>
+        <v>14587170828.747435</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -15997,37 +15997,37 @@
         <v>2011</v>
       </c>
       <c r="B403" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C403" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D403" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E403" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F403" s="1">
-        <v>49.3</v>
+        <v>51.8</v>
       </c>
       <c r="G403" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H403" s="1">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J403" s="1">
-        <v>44.850999999999999</v>
+        <v>43.433</v>
       </c>
       <c r="K403" s="1">
-        <v>11.086</v>
+        <v>84.7</v>
       </c>
       <c r="L403" s="4">
-        <v>14587170828.747435</v>
+        <v>62780228.883216806</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -16035,37 +16035,37 @@
         <v>2011</v>
       </c>
       <c r="B404" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C404" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D404" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E404" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F404" s="1">
-        <v>51.8</v>
+        <v>22.9</v>
       </c>
       <c r="G404" s="1">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H404" s="1">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J404" s="1">
-        <v>43.433</v>
+        <v>10.811</v>
       </c>
       <c r="K404" s="1">
-        <v>84.7</v>
+        <v>126.63800000000001</v>
       </c>
       <c r="L404" s="4">
-        <v>62780228.883216806</v>
+        <v>276971.59801419178</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -16073,75 +16073,75 @@
         <v>2011</v>
       </c>
       <c r="B405" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C405" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D405" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E405" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F405" s="1">
-        <v>22.9</v>
+        <v>28</v>
       </c>
       <c r="G405" s="1">
+        <v>28</v>
+      </c>
+      <c r="H405" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="I405" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H405" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="I405" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J405" s="1">
-        <v>10.811</v>
+        <v>27.574999999999999</v>
       </c>
       <c r="K405" s="1">
-        <v>126.63800000000001</v>
+        <v>103.983</v>
       </c>
       <c r="L405" s="4">
-        <v>276971.59801419178</v>
+        <v>923238660.04730582</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B406" s="1">
+        <v>2</v>
+      </c>
+      <c r="C406" s="1">
+        <v>6</v>
+      </c>
+      <c r="D406" s="1">
+        <v>3</v>
+      </c>
+      <c r="E406" s="1">
+        <v>49</v>
+      </c>
+      <c r="F406" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G406" s="1">
         <v>11</v>
       </c>
-      <c r="C406" s="1">
-        <v>1</v>
-      </c>
-      <c r="D406" s="1">
-        <v>0</v>
-      </c>
-      <c r="E406" s="1">
-        <v>21</v>
-      </c>
-      <c r="F406" s="1">
-        <v>28</v>
-      </c>
-      <c r="G406" s="1">
-        <v>28</v>
-      </c>
       <c r="H406" s="1">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J406" s="1">
-        <v>27.574999999999999</v>
+        <v>23.827999999999999</v>
       </c>
       <c r="K406" s="1">
-        <v>103.983</v>
+        <v>121.215</v>
       </c>
       <c r="L406" s="4">
-        <v>923238660.04730582</v>
+        <v>971712.98948946188</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -16149,37 +16149,37 @@
         <v>2012</v>
       </c>
       <c r="B407" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C407" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D407" s="1">
+        <v>7</v>
+      </c>
+      <c r="E407" s="1">
+        <v>0</v>
+      </c>
+      <c r="F407" s="1">
         <v>3</v>
       </c>
-      <c r="E407" s="1">
-        <v>49</v>
-      </c>
-      <c r="F407" s="1">
-        <v>12.5</v>
-      </c>
       <c r="G407" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H407" s="1">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J407" s="1">
-        <v>23.827999999999999</v>
+        <v>31.817</v>
       </c>
       <c r="K407" s="1">
-        <v>121.215</v>
+        <v>-97.087999999999994</v>
       </c>
       <c r="L407" s="4">
-        <v>971712.98948946188</v>
+        <v>86144768.571760818</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -16187,37 +16187,37 @@
         <v>2012</v>
       </c>
       <c r="B408" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C408" s="1">
         <v>29</v>
       </c>
       <c r="D408" s="1">
+        <v>21</v>
+      </c>
+      <c r="E408" s="1">
         <v>7</v>
       </c>
-      <c r="E408" s="1">
-        <v>0</v>
-      </c>
       <c r="F408" s="1">
-        <v>3</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="G408" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H408" s="1">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="J408" s="1">
-        <v>31.817</v>
+        <v>33.061</v>
       </c>
       <c r="K408" s="1">
-        <v>-97.087999999999994</v>
+        <v>75.863</v>
       </c>
       <c r="L408" s="4">
-        <v>86144768.571760818</v>
+        <v>16798229.871493358</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -16225,37 +16225,37 @@
         <v>2012</v>
       </c>
       <c r="B409" s="1">
+        <v>8</v>
+      </c>
+      <c r="C409" s="1">
+        <v>31</v>
+      </c>
+      <c r="D409" s="1">
+        <v>12</v>
+      </c>
+      <c r="E409" s="1">
+        <v>47</v>
+      </c>
+      <c r="F409" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G409" s="1">
+        <v>28</v>
+      </c>
+      <c r="H409" s="1">
         <v>6</v>
       </c>
-      <c r="C409" s="1">
-        <v>29</v>
-      </c>
-      <c r="D409" s="1">
-        <v>21</v>
-      </c>
-      <c r="E409" s="1">
-        <v>7</v>
-      </c>
-      <c r="F409" s="1">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="G409" s="1">
-        <v>18</v>
-      </c>
-      <c r="H409" s="1">
-        <v>5.7</v>
-      </c>
       <c r="I409" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J409" s="1">
-        <v>33.061</v>
+        <v>34.512</v>
       </c>
       <c r="K409" s="1">
-        <v>75.863</v>
+        <v>104.262</v>
       </c>
       <c r="L409" s="4">
-        <v>16798229.871493358</v>
+        <v>1695329045.4922526</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -16263,75 +16263,75 @@
         <v>2012</v>
       </c>
       <c r="B410" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C410" s="1">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D410" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E410" s="1">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F410" s="1">
-        <v>33.299999999999997</v>
+        <v>42.5</v>
       </c>
       <c r="G410" s="1">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H410" s="1">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J410" s="1">
-        <v>34.512</v>
+        <v>9.8659999999999997</v>
       </c>
       <c r="K410" s="1">
-        <v>104.262</v>
+        <v>124.011</v>
       </c>
       <c r="L410" s="4">
-        <v>1695329045.4922526</v>
+        <v>17487388.020067446</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B411" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C411" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D411" s="1">
+        <v>2</v>
+      </c>
+      <c r="E411" s="1">
         <v>3</v>
       </c>
-      <c r="E411" s="1">
+      <c r="F411" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="G411" s="1">
         <v>19</v>
       </c>
-      <c r="F411" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="G411" s="1">
-        <v>10</v>
-      </c>
       <c r="H411" s="1">
-        <v>7.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="J411" s="1">
-        <v>9.8659999999999997</v>
+        <v>33.932000000000002</v>
       </c>
       <c r="K411" s="1">
-        <v>124.011</v>
+        <v>-117.917</v>
       </c>
       <c r="L411" s="4">
-        <v>17487388.020067446</v>
+        <v>8732691.8313770313</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -16339,37 +16339,37 @@
         <v>2013</v>
       </c>
       <c r="B412" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C412" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D412" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E412" s="1">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F412" s="1">
-        <v>19.8</v>
+        <v>38.5</v>
       </c>
       <c r="G412" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H412" s="1">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="J412" s="1">
-        <v>33.932000000000002</v>
+        <v>49.914999999999999</v>
       </c>
       <c r="K412" s="1">
-        <v>-117.917</v>
+        <v>8.6240000000000006</v>
       </c>
       <c r="L412" s="4">
-        <v>8732691.8313770313</v>
+        <v>1099672.3046919224</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -16377,74 +16377,36 @@
         <v>2013</v>
       </c>
       <c r="B413" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C413" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D413" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E413" s="1">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F413" s="1">
-        <v>38.5</v>
+        <v>13.4</v>
       </c>
       <c r="G413" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H413" s="1">
-        <v>4.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="J413" s="1">
-        <v>49.914999999999999</v>
+        <v>38.22</v>
       </c>
       <c r="K413" s="1">
-        <v>8.6240000000000006</v>
+        <v>-122.313</v>
       </c>
       <c r="L413" s="4">
-        <v>1099672.3046919224</v>
-      </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A414" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B414" s="1">
-        <v>5</v>
-      </c>
-      <c r="C414" s="1">
-        <v>1</v>
-      </c>
-      <c r="D414" s="1">
-        <v>6</v>
-      </c>
-      <c r="E414" s="1">
-        <v>57</v>
-      </c>
-      <c r="F414" s="1">
-        <v>13.4</v>
-      </c>
-      <c r="G414" s="1">
-        <v>15</v>
-      </c>
-      <c r="H414" s="1">
-        <v>6</v>
-      </c>
-      <c r="I414" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J414" s="1">
-        <v>38.22</v>
-      </c>
-      <c r="K414" s="1">
-        <v>-122.313</v>
-      </c>
-      <c r="L414" s="4">
         <v>292706892.86652642</v>
       </c>
     </row>
